--- a/tests/databooks/databook_model_simple(counterfactual).xlsx
+++ b/tests/databooks/databook_model_simple(counterfactual).xlsx
@@ -1769,7 +1769,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1932,7 @@
         <v>Children</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>General Population</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2097,7 +2097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/databook_model_simple(counterfactual).xlsx
+++ b/tests/databooks/databook_model_simple(counterfactual).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14445" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -628,7 +628,7 @@
         <v>GEN</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>SAC</v>
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>GEN</v>
@@ -1357,7 +1357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -1432,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -1448,7 +1448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -1523,7 +1523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -1539,7 +1539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -1614,7 +1614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -1630,7 +1630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -1768,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2289,7 +2289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -2364,7 +2364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -2380,7 +2380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -2455,7 +2455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -2471,7 +2471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -2546,7 +2546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -2562,7 +2562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -2637,7 +2637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -2653,7 +2653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -2728,7 +2728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -2744,7 +2744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -2819,7 +2819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -2835,7 +2835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -2910,7 +2910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>
@@ -2926,7 +2926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Children</v>
@@ -3001,7 +3001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>General Population</v>

--- a/tests/databooks/databook_model_simple(counterfactual).xlsx
+++ b/tests/databooks/databook_model_simple(counterfactual).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -545,7 +545,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
     <col min="4" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Transfer Definitions'!A5</f>
         <v>Migration Type 1</v>
@@ -764,7 +764,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>IF('Transfer Definitions'!C6="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -790,7 +790,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>IF('Transfer Definitions'!B7="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -915,9 +915,8 @@
         <f>IF('Transfer Definitions'!B11="y",'Population Definitions'!$A$2,"")</f>
         <v/>
       </c>
-      <c r="D7" t="str">
-        <f>IF(A7&lt;&gt;"...","Fraction","")</f>
-        <v/>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
       <c r="E7" t="str">
         <f>IF(A7&lt;&gt;"...",IF(SUMPRODUCT(--(G7:V7&lt;&gt;""))=0,0,"N.A."),"")</f>
@@ -2097,7 +2096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/databook_model_simple(counterfactual).xlsx
+++ b/tests/databooks/databook_model_simple(counterfactual).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -545,7 +545,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,12 +777,11 @@
         <f>IF('Transfer Definitions'!C6="y",'Population Definitions'!$A$3,"")</f>
         <v/>
       </c>
-      <c r="D2" t="str">
-        <f>IF(A2&lt;&gt;"...","Fraction","")</f>
-        <v/>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(A2&lt;&gt;"...",IF(SUMPRODUCT(--(G2:V2&lt;&gt;""))=0,0,"N.A."),"")</f>
+        <f>IF(A2&lt;&gt;"...",IF(SUMPRODUCT(--(G2:V2&lt;&gt;""))=0,0.1,"N.A."),"")</f>
         <v/>
       </c>
       <c r="F2" t="str">
@@ -916,10 +915,10 @@
         <v/>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(A7&lt;&gt;"...",IF(SUMPRODUCT(--(G7:V7&lt;&gt;""))=0,0,"N.A."),"")</f>
+        <f>IF(A7&lt;&gt;"...",IF(SUMPRODUCT(--(G7:V7&lt;&gt;""))=0,0.1,"N.A."),"")</f>
         <v/>
       </c>
       <c r="F7" t="str">

--- a/tests/databooks/databook_model_simple(counterfactual).xlsx
+++ b/tests/databooks/databook_model_simple(counterfactual).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14445" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14445" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>GEN</t>
+  </si>
+  <si>
+    <t>Recovered</t>
   </si>
 </sst>
 </file>
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +697,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,10 +781,10 @@
         <v/>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(A2&lt;&gt;"...",IF(SUMPRODUCT(--(G2:V2&lt;&gt;""))=0,0.1,"N.A."),"")</f>
+        <f>IF(A2&lt;&gt;"...",IF(SUMPRODUCT(--(G2:V2&lt;&gt;""))=0,10,"N.A."),"")</f>
         <v/>
       </c>
       <c r="F2" t="str">
@@ -950,7 +953,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,6 +1722,95 @@
         <v>12</v>
       </c>
     </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+      <c r="F25">
+        <v>2001</v>
+      </c>
+      <c r="G25">
+        <v>2002</v>
+      </c>
+      <c r="H25">
+        <v>2003</v>
+      </c>
+      <c r="I25">
+        <v>2004</v>
+      </c>
+      <c r="J25">
+        <v>2005</v>
+      </c>
+      <c r="K25">
+        <v>2006</v>
+      </c>
+      <c r="L25">
+        <v>2007</v>
+      </c>
+      <c r="M25">
+        <v>2008</v>
+      </c>
+      <c r="N25">
+        <v>2009</v>
+      </c>
+      <c r="O25">
+        <v>2010</v>
+      </c>
+      <c r="P25">
+        <v>2011</v>
+      </c>
+      <c r="Q25">
+        <v>2012</v>
+      </c>
+      <c r="R25">
+        <v>2013</v>
+      </c>
+      <c r="S25">
+        <v>2014</v>
+      </c>
+      <c r="T25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>Children</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>2500</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>General Population</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>2500</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="12">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -1751,10 +1843,10 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22 B26">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23 B27">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2095,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
